--- a/Docs/Resources/ObstaclesKpi.xlsx
+++ b/Docs/Resources/ObstaclesKpi.xlsx
@@ -345,7 +345,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,10 +414,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,10 +434,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -456,10 +448,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -486,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ38"/>
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:R25"/>
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,11 +490,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -798,9 +786,7 @@
         <v>0.96</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7" t="n">
         <v>0.08</v>
       </c>
@@ -1022,9 +1008,7 @@
         <v>0.96</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="n">
         <v>0.08</v>
       </c>
@@ -1400,9 +1384,7 @@
         <v>0.91</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7" t="n">
         <v>0.08</v>
       </c>
@@ -1507,262 +1489,39 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="B33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1793,7 +1552,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="A1:R25 D27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,170 +1565,170 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="955" min="19" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="956" style="19" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="956" style="18" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="23" t="s">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="24" t="n">
+      <c r="B4" s="22" t="n">
         <v>20241130</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -2007,10 +1766,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="24" t="n">
+      <c r="B5" s="22" t="n">
         <v>20241230</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -2048,10 +1807,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="22" t="n">
         <v>20250228</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -2089,10 +1848,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24" t="n">
+      <c r="B7" s="22" t="n">
         <v>20250330</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -2130,10 +1889,10 @@
       </c>
     </row>
     <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="24" t="n">
+      <c r="B8" s="22" t="n">
         <v>20241130</v>
       </c>
       <c r="F8" s="1" t="n">
@@ -2169,30 +1928,30 @@
       <c r="P8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ALS8" s="19"/>
-      <c r="ALT8" s="19"/>
-      <c r="ALU8" s="19"/>
-      <c r="ALV8" s="19"/>
-      <c r="ALW8" s="19"/>
-      <c r="ALX8" s="19"/>
-      <c r="ALY8" s="19"/>
-      <c r="ALZ8" s="19"/>
-      <c r="AMA8" s="19"/>
-      <c r="AMB8" s="19"/>
-      <c r="AMC8" s="19"/>
-      <c r="AMD8" s="19"/>
-      <c r="AME8" s="19"/>
-      <c r="AMF8" s="19"/>
-      <c r="AMG8" s="19"/>
-      <c r="AMH8" s="19"/>
-      <c r="AMI8" s="19"/>
-      <c r="AMJ8" s="19"/>
+      <c r="ALS8" s="18"/>
+      <c r="ALT8" s="18"/>
+      <c r="ALU8" s="18"/>
+      <c r="ALV8" s="18"/>
+      <c r="ALW8" s="18"/>
+      <c r="ALX8" s="18"/>
+      <c r="ALY8" s="18"/>
+      <c r="ALZ8" s="18"/>
+      <c r="AMA8" s="18"/>
+      <c r="AMB8" s="18"/>
+      <c r="AMC8" s="18"/>
+      <c r="AMD8" s="18"/>
+      <c r="AME8" s="18"/>
+      <c r="AMF8" s="18"/>
+      <c r="AMG8" s="18"/>
+      <c r="AMH8" s="18"/>
+      <c r="AMI8" s="18"/>
+      <c r="AMJ8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="22" t="n">
         <v>20241230</v>
       </c>
       <c r="F9" s="1" t="n">
@@ -2230,10 +1989,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="24" t="n">
+      <c r="B10" s="22" t="n">
         <v>20250228</v>
       </c>
       <c r="F10" s="1" t="n">
@@ -2271,10 +2030,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="22" t="n">
         <v>20250330</v>
       </c>
       <c r="F11" s="1" t="n">
@@ -2312,10 +2071,10 @@
       </c>
     </row>
     <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="22" t="n">
         <v>20241130</v>
       </c>
       <c r="F12" s="10" t="n">
@@ -2348,81 +2107,81 @@
       <c r="P12" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AJT12" s="27"/>
-      <c r="AJU12" s="27"/>
-      <c r="AJV12" s="27"/>
-      <c r="AJW12" s="27"/>
-      <c r="AJX12" s="27"/>
-      <c r="AJY12" s="27"/>
-      <c r="AJZ12" s="27"/>
-      <c r="AKA12" s="27"/>
-      <c r="AKB12" s="27"/>
-      <c r="AKC12" s="27"/>
-      <c r="AKD12" s="27"/>
-      <c r="AKE12" s="27"/>
-      <c r="AKF12" s="27"/>
-      <c r="AKG12" s="27"/>
-      <c r="AKH12" s="27"/>
-      <c r="AKI12" s="27"/>
-      <c r="AKJ12" s="27"/>
-      <c r="AKK12" s="27"/>
-      <c r="AKL12" s="27"/>
-      <c r="AKM12" s="27"/>
-      <c r="AKN12" s="27"/>
-      <c r="AKO12" s="27"/>
-      <c r="AKP12" s="27"/>
-      <c r="AKQ12" s="27"/>
-      <c r="AKR12" s="27"/>
-      <c r="AKS12" s="27"/>
-      <c r="AKT12" s="27"/>
-      <c r="AKU12" s="27"/>
-      <c r="AKV12" s="27"/>
-      <c r="AKW12" s="27"/>
-      <c r="AKX12" s="27"/>
-      <c r="AKY12" s="27"/>
-      <c r="AKZ12" s="27"/>
-      <c r="ALA12" s="27"/>
-      <c r="ALB12" s="27"/>
-      <c r="ALC12" s="27"/>
-      <c r="ALD12" s="27"/>
-      <c r="ALE12" s="27"/>
-      <c r="ALF12" s="27"/>
-      <c r="ALG12" s="27"/>
-      <c r="ALH12" s="27"/>
-      <c r="ALI12" s="27"/>
-      <c r="ALJ12" s="27"/>
-      <c r="ALK12" s="27"/>
-      <c r="ALL12" s="27"/>
-      <c r="ALM12" s="27"/>
-      <c r="ALN12" s="27"/>
-      <c r="ALO12" s="27"/>
-      <c r="ALP12" s="27"/>
-      <c r="ALQ12" s="27"/>
-      <c r="ALR12" s="27"/>
-      <c r="ALS12" s="19"/>
-      <c r="ALT12" s="19"/>
-      <c r="ALU12" s="19"/>
-      <c r="ALV12" s="19"/>
-      <c r="ALW12" s="19"/>
-      <c r="ALX12" s="19"/>
-      <c r="ALY12" s="19"/>
-      <c r="ALZ12" s="19"/>
-      <c r="AMA12" s="19"/>
-      <c r="AMB12" s="19"/>
-      <c r="AMC12" s="19"/>
-      <c r="AMD12" s="19"/>
-      <c r="AME12" s="19"/>
-      <c r="AMF12" s="19"/>
-      <c r="AMG12" s="19"/>
-      <c r="AMH12" s="19"/>
-      <c r="AMI12" s="19"/>
-      <c r="AMJ12" s="19"/>
+      <c r="AJT12" s="25"/>
+      <c r="AJU12" s="25"/>
+      <c r="AJV12" s="25"/>
+      <c r="AJW12" s="25"/>
+      <c r="AJX12" s="25"/>
+      <c r="AJY12" s="25"/>
+      <c r="AJZ12" s="25"/>
+      <c r="AKA12" s="25"/>
+      <c r="AKB12" s="25"/>
+      <c r="AKC12" s="25"/>
+      <c r="AKD12" s="25"/>
+      <c r="AKE12" s="25"/>
+      <c r="AKF12" s="25"/>
+      <c r="AKG12" s="25"/>
+      <c r="AKH12" s="25"/>
+      <c r="AKI12" s="25"/>
+      <c r="AKJ12" s="25"/>
+      <c r="AKK12" s="25"/>
+      <c r="AKL12" s="25"/>
+      <c r="AKM12" s="25"/>
+      <c r="AKN12" s="25"/>
+      <c r="AKO12" s="25"/>
+      <c r="AKP12" s="25"/>
+      <c r="AKQ12" s="25"/>
+      <c r="AKR12" s="25"/>
+      <c r="AKS12" s="25"/>
+      <c r="AKT12" s="25"/>
+      <c r="AKU12" s="25"/>
+      <c r="AKV12" s="25"/>
+      <c r="AKW12" s="25"/>
+      <c r="AKX12" s="25"/>
+      <c r="AKY12" s="25"/>
+      <c r="AKZ12" s="25"/>
+      <c r="ALA12" s="25"/>
+      <c r="ALB12" s="25"/>
+      <c r="ALC12" s="25"/>
+      <c r="ALD12" s="25"/>
+      <c r="ALE12" s="25"/>
+      <c r="ALF12" s="25"/>
+      <c r="ALG12" s="25"/>
+      <c r="ALH12" s="25"/>
+      <c r="ALI12" s="25"/>
+      <c r="ALJ12" s="25"/>
+      <c r="ALK12" s="25"/>
+      <c r="ALL12" s="25"/>
+      <c r="ALM12" s="25"/>
+      <c r="ALN12" s="25"/>
+      <c r="ALO12" s="25"/>
+      <c r="ALP12" s="25"/>
+      <c r="ALQ12" s="25"/>
+      <c r="ALR12" s="25"/>
+      <c r="ALS12" s="18"/>
+      <c r="ALT12" s="18"/>
+      <c r="ALU12" s="18"/>
+      <c r="ALV12" s="18"/>
+      <c r="ALW12" s="18"/>
+      <c r="ALX12" s="18"/>
+      <c r="ALY12" s="18"/>
+      <c r="ALZ12" s="18"/>
+      <c r="AMA12" s="18"/>
+      <c r="AMB12" s="18"/>
+      <c r="AMC12" s="18"/>
+      <c r="AMD12" s="18"/>
+      <c r="AME12" s="18"/>
+      <c r="AMF12" s="18"/>
+      <c r="AMG12" s="18"/>
+      <c r="AMH12" s="18"/>
+      <c r="AMI12" s="18"/>
+      <c r="AMJ12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="24" t="n">
+      <c r="B13" s="22" t="n">
         <v>20241230</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -2457,10 +2216,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="22" t="n">
         <v>20250228</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -2495,10 +2254,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="22" t="n">
         <v>20250330</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -2533,10 +2292,10 @@
       </c>
     </row>
     <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="22" t="n">
         <v>20241130</v>
       </c>
       <c r="F16" s="10" t="n">
@@ -2569,81 +2328,81 @@
       <c r="P16" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="AJT16" s="27"/>
-      <c r="AJU16" s="27"/>
-      <c r="AJV16" s="27"/>
-      <c r="AJW16" s="27"/>
-      <c r="AJX16" s="27"/>
-      <c r="AJY16" s="27"/>
-      <c r="AJZ16" s="27"/>
-      <c r="AKA16" s="27"/>
-      <c r="AKB16" s="27"/>
-      <c r="AKC16" s="27"/>
-      <c r="AKD16" s="27"/>
-      <c r="AKE16" s="27"/>
-      <c r="AKF16" s="27"/>
-      <c r="AKG16" s="27"/>
-      <c r="AKH16" s="27"/>
-      <c r="AKI16" s="27"/>
-      <c r="AKJ16" s="27"/>
-      <c r="AKK16" s="27"/>
-      <c r="AKL16" s="27"/>
-      <c r="AKM16" s="27"/>
-      <c r="AKN16" s="27"/>
-      <c r="AKO16" s="27"/>
-      <c r="AKP16" s="27"/>
-      <c r="AKQ16" s="27"/>
-      <c r="AKR16" s="27"/>
-      <c r="AKS16" s="27"/>
-      <c r="AKT16" s="27"/>
-      <c r="AKU16" s="27"/>
-      <c r="AKV16" s="27"/>
-      <c r="AKW16" s="27"/>
-      <c r="AKX16" s="27"/>
-      <c r="AKY16" s="27"/>
-      <c r="AKZ16" s="27"/>
-      <c r="ALA16" s="27"/>
-      <c r="ALB16" s="27"/>
-      <c r="ALC16" s="27"/>
-      <c r="ALD16" s="27"/>
-      <c r="ALE16" s="27"/>
-      <c r="ALF16" s="27"/>
-      <c r="ALG16" s="27"/>
-      <c r="ALH16" s="27"/>
-      <c r="ALI16" s="27"/>
-      <c r="ALJ16" s="27"/>
-      <c r="ALK16" s="27"/>
-      <c r="ALL16" s="27"/>
-      <c r="ALM16" s="27"/>
-      <c r="ALN16" s="27"/>
-      <c r="ALO16" s="27"/>
-      <c r="ALP16" s="27"/>
-      <c r="ALQ16" s="27"/>
-      <c r="ALR16" s="27"/>
-      <c r="ALS16" s="19"/>
-      <c r="ALT16" s="19"/>
-      <c r="ALU16" s="19"/>
-      <c r="ALV16" s="19"/>
-      <c r="ALW16" s="19"/>
-      <c r="ALX16" s="19"/>
-      <c r="ALY16" s="19"/>
-      <c r="ALZ16" s="19"/>
-      <c r="AMA16" s="19"/>
-      <c r="AMB16" s="19"/>
-      <c r="AMC16" s="19"/>
-      <c r="AMD16" s="19"/>
-      <c r="AME16" s="19"/>
-      <c r="AMF16" s="19"/>
-      <c r="AMG16" s="19"/>
-      <c r="AMH16" s="19"/>
-      <c r="AMI16" s="19"/>
-      <c r="AMJ16" s="19"/>
+      <c r="AJT16" s="25"/>
+      <c r="AJU16" s="25"/>
+      <c r="AJV16" s="25"/>
+      <c r="AJW16" s="25"/>
+      <c r="AJX16" s="25"/>
+      <c r="AJY16" s="25"/>
+      <c r="AJZ16" s="25"/>
+      <c r="AKA16" s="25"/>
+      <c r="AKB16" s="25"/>
+      <c r="AKC16" s="25"/>
+      <c r="AKD16" s="25"/>
+      <c r="AKE16" s="25"/>
+      <c r="AKF16" s="25"/>
+      <c r="AKG16" s="25"/>
+      <c r="AKH16" s="25"/>
+      <c r="AKI16" s="25"/>
+      <c r="AKJ16" s="25"/>
+      <c r="AKK16" s="25"/>
+      <c r="AKL16" s="25"/>
+      <c r="AKM16" s="25"/>
+      <c r="AKN16" s="25"/>
+      <c r="AKO16" s="25"/>
+      <c r="AKP16" s="25"/>
+      <c r="AKQ16" s="25"/>
+      <c r="AKR16" s="25"/>
+      <c r="AKS16" s="25"/>
+      <c r="AKT16" s="25"/>
+      <c r="AKU16" s="25"/>
+      <c r="AKV16" s="25"/>
+      <c r="AKW16" s="25"/>
+      <c r="AKX16" s="25"/>
+      <c r="AKY16" s="25"/>
+      <c r="AKZ16" s="25"/>
+      <c r="ALA16" s="25"/>
+      <c r="ALB16" s="25"/>
+      <c r="ALC16" s="25"/>
+      <c r="ALD16" s="25"/>
+      <c r="ALE16" s="25"/>
+      <c r="ALF16" s="25"/>
+      <c r="ALG16" s="25"/>
+      <c r="ALH16" s="25"/>
+      <c r="ALI16" s="25"/>
+      <c r="ALJ16" s="25"/>
+      <c r="ALK16" s="25"/>
+      <c r="ALL16" s="25"/>
+      <c r="ALM16" s="25"/>
+      <c r="ALN16" s="25"/>
+      <c r="ALO16" s="25"/>
+      <c r="ALP16" s="25"/>
+      <c r="ALQ16" s="25"/>
+      <c r="ALR16" s="25"/>
+      <c r="ALS16" s="18"/>
+      <c r="ALT16" s="18"/>
+      <c r="ALU16" s="18"/>
+      <c r="ALV16" s="18"/>
+      <c r="ALW16" s="18"/>
+      <c r="ALX16" s="18"/>
+      <c r="ALY16" s="18"/>
+      <c r="ALZ16" s="18"/>
+      <c r="AMA16" s="18"/>
+      <c r="AMB16" s="18"/>
+      <c r="AMC16" s="18"/>
+      <c r="AMD16" s="18"/>
+      <c r="AME16" s="18"/>
+      <c r="AMF16" s="18"/>
+      <c r="AMG16" s="18"/>
+      <c r="AMH16" s="18"/>
+      <c r="AMI16" s="18"/>
+      <c r="AMJ16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="22" t="n">
         <v>20241230</v>
       </c>
       <c r="F17" s="1" t="n">
@@ -2678,10 +2437,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="22" t="n">
         <v>20250228</v>
       </c>
       <c r="F18" s="1" t="n">
@@ -2716,10 +2475,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="22" t="n">
         <v>20250330</v>
       </c>
       <c r="F19" s="1" t="n">
@@ -2754,10 +2513,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="22" t="n">
         <v>20241130</v>
       </c>
       <c r="F20" s="10" t="n">
@@ -2768,10 +2527,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="22" t="n">
         <v>20241230</v>
       </c>
       <c r="F21" s="1" t="n">
@@ -2782,10 +2541,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="22" t="n">
         <v>20250228</v>
       </c>
       <c r="F22" s="1" t="n">
@@ -2796,10 +2555,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="24" t="n">
+      <c r="B23" s="22" t="n">
         <v>20250330</v>
       </c>
       <c r="F23" s="1" t="n">

--- a/Docs/Resources/ObstaclesKpi.xlsx
+++ b/Docs/Resources/ObstaclesKpi.xlsx
@@ -176,12 +176,11 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,6 +196,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -242,6 +247,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -249,9 +260,8 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -273,13 +283,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -316,23 +319,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,12 +339,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,63 +357,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,31 +413,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,7 +468,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,11 +481,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -539,17 +530,17 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -588,7 +579,7 @@
       <c r="Q2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -596,7 +587,7 @@
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -852,45 +843,45 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="7" t="n">
         <v>0.96</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="n">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="7" t="n">
         <v>0.06</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="n">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="n">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="ALS9" s="1"/>
       <c r="ALT9" s="1"/>
       <c r="ALU9" s="1"/>
@@ -1074,11 +1065,11 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="7" t="n">
@@ -1087,26 +1078,26 @@
       <c r="D14" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="n">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="ALS14" s="1"/>
       <c r="ALT14" s="1"/>
       <c r="ALU14" s="1"/>
@@ -1127,7 +1118,7 @@
       <c r="AMJ14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1161,7 +1152,7 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1193,14 +1184,14 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1217,7 +1208,7 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1240,11 +1231,11 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="7" t="n">
@@ -1253,30 +1244,30 @@
       <c r="D19" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="n">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="7" t="n">
         <v>0.08</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="n">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="n">
         <v>0.18</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="n">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="ALS19" s="1"/>
       <c r="ALT19" s="1"/>
       <c r="ALU19" s="1"/>
@@ -1297,7 +1288,7 @@
       <c r="AMJ19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1328,14 +1319,14 @@
         <v>0.15</v>
       </c>
       <c r="O20" s="7"/>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1371,7 +1362,7 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1407,7 +1398,7 @@
       <c r="R22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1431,7 +1422,7 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1459,7 +1450,7 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1487,41 +1478,41 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="17"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="17"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="17"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17"/>
+      <c r="B33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1538,8 +1529,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1552,7 +1543,7 @@
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1565,1008 +1556,1152 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="955" min="19" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="956" style="18" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="956" style="15" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="19"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="19" t="n">
         <v>20241130</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="20" t="n">
         <v>3</v>
       </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="19" t="n">
         <v>20241230</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M5" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="19" t="n">
         <v>20250228</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M6" s="1" t="n">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="20" t="n">
         <v>2</v>
       </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="19" t="n">
         <v>20250330</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="19" t="n">
         <v>20241130</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="ALS8" s="18"/>
-      <c r="ALT8" s="18"/>
-      <c r="ALU8" s="18"/>
-      <c r="ALV8" s="18"/>
-      <c r="ALW8" s="18"/>
-      <c r="ALX8" s="18"/>
-      <c r="ALY8" s="18"/>
-      <c r="ALZ8" s="18"/>
-      <c r="AMA8" s="18"/>
-      <c r="AMB8" s="18"/>
-      <c r="AMC8" s="18"/>
-      <c r="AMD8" s="18"/>
-      <c r="AME8" s="18"/>
-      <c r="AMF8" s="18"/>
-      <c r="AMG8" s="18"/>
-      <c r="AMH8" s="18"/>
-      <c r="AMI8" s="18"/>
-      <c r="AMJ8" s="18"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="ALS8" s="15"/>
+      <c r="ALT8" s="15"/>
+      <c r="ALU8" s="15"/>
+      <c r="ALV8" s="15"/>
+      <c r="ALW8" s="15"/>
+      <c r="ALX8" s="15"/>
+      <c r="ALY8" s="15"/>
+      <c r="ALZ8" s="15"/>
+      <c r="AMA8" s="15"/>
+      <c r="AMB8" s="15"/>
+      <c r="AMC8" s="15"/>
+      <c r="AMD8" s="15"/>
+      <c r="AME8" s="15"/>
+      <c r="AMF8" s="15"/>
+      <c r="AMG8" s="15"/>
+      <c r="AMH8" s="15"/>
+      <c r="AMI8" s="15"/>
+      <c r="AMJ8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="19" t="n">
         <v>20241230</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="M9" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="M9" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P9" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="19" t="n">
         <v>20250228</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M10" s="1" t="n">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M10" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="20" t="n">
         <v>2</v>
       </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="19" t="n">
         <v>20250330</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="19" t="n">
         <v>20241130</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="M12" s="10" t="n">
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="10" t="n">
+      <c r="O12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="AJT12" s="25"/>
-      <c r="AJU12" s="25"/>
-      <c r="AJV12" s="25"/>
-      <c r="AJW12" s="25"/>
-      <c r="AJX12" s="25"/>
-      <c r="AJY12" s="25"/>
-      <c r="AJZ12" s="25"/>
-      <c r="AKA12" s="25"/>
-      <c r="AKB12" s="25"/>
-      <c r="AKC12" s="25"/>
-      <c r="AKD12" s="25"/>
-      <c r="AKE12" s="25"/>
-      <c r="AKF12" s="25"/>
-      <c r="AKG12" s="25"/>
-      <c r="AKH12" s="25"/>
-      <c r="AKI12" s="25"/>
-      <c r="AKJ12" s="25"/>
-      <c r="AKK12" s="25"/>
-      <c r="AKL12" s="25"/>
-      <c r="AKM12" s="25"/>
-      <c r="AKN12" s="25"/>
-      <c r="AKO12" s="25"/>
-      <c r="AKP12" s="25"/>
-      <c r="AKQ12" s="25"/>
-      <c r="AKR12" s="25"/>
-      <c r="AKS12" s="25"/>
-      <c r="AKT12" s="25"/>
-      <c r="AKU12" s="25"/>
-      <c r="AKV12" s="25"/>
-      <c r="AKW12" s="25"/>
-      <c r="AKX12" s="25"/>
-      <c r="AKY12" s="25"/>
-      <c r="AKZ12" s="25"/>
-      <c r="ALA12" s="25"/>
-      <c r="ALB12" s="25"/>
-      <c r="ALC12" s="25"/>
-      <c r="ALD12" s="25"/>
-      <c r="ALE12" s="25"/>
-      <c r="ALF12" s="25"/>
-      <c r="ALG12" s="25"/>
-      <c r="ALH12" s="25"/>
-      <c r="ALI12" s="25"/>
-      <c r="ALJ12" s="25"/>
-      <c r="ALK12" s="25"/>
-      <c r="ALL12" s="25"/>
-      <c r="ALM12" s="25"/>
-      <c r="ALN12" s="25"/>
-      <c r="ALO12" s="25"/>
-      <c r="ALP12" s="25"/>
-      <c r="ALQ12" s="25"/>
-      <c r="ALR12" s="25"/>
-      <c r="ALS12" s="18"/>
-      <c r="ALT12" s="18"/>
-      <c r="ALU12" s="18"/>
-      <c r="ALV12" s="18"/>
-      <c r="ALW12" s="18"/>
-      <c r="ALX12" s="18"/>
-      <c r="ALY12" s="18"/>
-      <c r="ALZ12" s="18"/>
-      <c r="AMA12" s="18"/>
-      <c r="AMB12" s="18"/>
-      <c r="AMC12" s="18"/>
-      <c r="AMD12" s="18"/>
-      <c r="AME12" s="18"/>
-      <c r="AMF12" s="18"/>
-      <c r="AMG12" s="18"/>
-      <c r="AMH12" s="18"/>
-      <c r="AMI12" s="18"/>
-      <c r="AMJ12" s="18"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="AJT12" s="22"/>
+      <c r="AJU12" s="22"/>
+      <c r="AJV12" s="22"/>
+      <c r="AJW12" s="22"/>
+      <c r="AJX12" s="22"/>
+      <c r="AJY12" s="22"/>
+      <c r="AJZ12" s="22"/>
+      <c r="AKA12" s="22"/>
+      <c r="AKB12" s="22"/>
+      <c r="AKC12" s="22"/>
+      <c r="AKD12" s="22"/>
+      <c r="AKE12" s="22"/>
+      <c r="AKF12" s="22"/>
+      <c r="AKG12" s="22"/>
+      <c r="AKH12" s="22"/>
+      <c r="AKI12" s="22"/>
+      <c r="AKJ12" s="22"/>
+      <c r="AKK12" s="22"/>
+      <c r="AKL12" s="22"/>
+      <c r="AKM12" s="22"/>
+      <c r="AKN12" s="22"/>
+      <c r="AKO12" s="22"/>
+      <c r="AKP12" s="22"/>
+      <c r="AKQ12" s="22"/>
+      <c r="AKR12" s="22"/>
+      <c r="AKS12" s="22"/>
+      <c r="AKT12" s="22"/>
+      <c r="AKU12" s="22"/>
+      <c r="AKV12" s="22"/>
+      <c r="AKW12" s="22"/>
+      <c r="AKX12" s="22"/>
+      <c r="AKY12" s="22"/>
+      <c r="AKZ12" s="22"/>
+      <c r="ALA12" s="22"/>
+      <c r="ALB12" s="22"/>
+      <c r="ALC12" s="22"/>
+      <c r="ALD12" s="22"/>
+      <c r="ALE12" s="22"/>
+      <c r="ALF12" s="22"/>
+      <c r="ALG12" s="22"/>
+      <c r="ALH12" s="22"/>
+      <c r="ALI12" s="22"/>
+      <c r="ALJ12" s="22"/>
+      <c r="ALK12" s="22"/>
+      <c r="ALL12" s="22"/>
+      <c r="ALM12" s="22"/>
+      <c r="ALN12" s="22"/>
+      <c r="ALO12" s="22"/>
+      <c r="ALP12" s="22"/>
+      <c r="ALQ12" s="22"/>
+      <c r="ALR12" s="22"/>
+      <c r="ALS12" s="15"/>
+      <c r="ALT12" s="15"/>
+      <c r="ALU12" s="15"/>
+      <c r="ALV12" s="15"/>
+      <c r="ALW12" s="15"/>
+      <c r="ALX12" s="15"/>
+      <c r="ALY12" s="15"/>
+      <c r="ALZ12" s="15"/>
+      <c r="AMA12" s="15"/>
+      <c r="AMB12" s="15"/>
+      <c r="AMC12" s="15"/>
+      <c r="AMD12" s="15"/>
+      <c r="AME12" s="15"/>
+      <c r="AMF12" s="15"/>
+      <c r="AMG12" s="15"/>
+      <c r="AMH12" s="15"/>
+      <c r="AMI12" s="15"/>
+      <c r="AMJ12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="19" t="n">
         <v>20241230</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" s="1" t="n">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P13" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="19" t="n">
         <v>20250228</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M14" s="1" t="n">
+      <c r="J14" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="20" t="n">
         <v>2</v>
       </c>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="19" t="n">
         <v>20250330</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="19" t="n">
         <v>20241130</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="M16" s="10" t="n">
+      <c r="L16" s="20"/>
+      <c r="M16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="N16" s="10" t="n">
+      <c r="N16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="O16" s="10" t="n">
+      <c r="O16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="P16" s="10" t="n">
+      <c r="P16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="AJT16" s="25"/>
-      <c r="AJU16" s="25"/>
-      <c r="AJV16" s="25"/>
-      <c r="AJW16" s="25"/>
-      <c r="AJX16" s="25"/>
-      <c r="AJY16" s="25"/>
-      <c r="AJZ16" s="25"/>
-      <c r="AKA16" s="25"/>
-      <c r="AKB16" s="25"/>
-      <c r="AKC16" s="25"/>
-      <c r="AKD16" s="25"/>
-      <c r="AKE16" s="25"/>
-      <c r="AKF16" s="25"/>
-      <c r="AKG16" s="25"/>
-      <c r="AKH16" s="25"/>
-      <c r="AKI16" s="25"/>
-      <c r="AKJ16" s="25"/>
-      <c r="AKK16" s="25"/>
-      <c r="AKL16" s="25"/>
-      <c r="AKM16" s="25"/>
-      <c r="AKN16" s="25"/>
-      <c r="AKO16" s="25"/>
-      <c r="AKP16" s="25"/>
-      <c r="AKQ16" s="25"/>
-      <c r="AKR16" s="25"/>
-      <c r="AKS16" s="25"/>
-      <c r="AKT16" s="25"/>
-      <c r="AKU16" s="25"/>
-      <c r="AKV16" s="25"/>
-      <c r="AKW16" s="25"/>
-      <c r="AKX16" s="25"/>
-      <c r="AKY16" s="25"/>
-      <c r="AKZ16" s="25"/>
-      <c r="ALA16" s="25"/>
-      <c r="ALB16" s="25"/>
-      <c r="ALC16" s="25"/>
-      <c r="ALD16" s="25"/>
-      <c r="ALE16" s="25"/>
-      <c r="ALF16" s="25"/>
-      <c r="ALG16" s="25"/>
-      <c r="ALH16" s="25"/>
-      <c r="ALI16" s="25"/>
-      <c r="ALJ16" s="25"/>
-      <c r="ALK16" s="25"/>
-      <c r="ALL16" s="25"/>
-      <c r="ALM16" s="25"/>
-      <c r="ALN16" s="25"/>
-      <c r="ALO16" s="25"/>
-      <c r="ALP16" s="25"/>
-      <c r="ALQ16" s="25"/>
-      <c r="ALR16" s="25"/>
-      <c r="ALS16" s="18"/>
-      <c r="ALT16" s="18"/>
-      <c r="ALU16" s="18"/>
-      <c r="ALV16" s="18"/>
-      <c r="ALW16" s="18"/>
-      <c r="ALX16" s="18"/>
-      <c r="ALY16" s="18"/>
-      <c r="ALZ16" s="18"/>
-      <c r="AMA16" s="18"/>
-      <c r="AMB16" s="18"/>
-      <c r="AMC16" s="18"/>
-      <c r="AMD16" s="18"/>
-      <c r="AME16" s="18"/>
-      <c r="AMF16" s="18"/>
-      <c r="AMG16" s="18"/>
-      <c r="AMH16" s="18"/>
-      <c r="AMI16" s="18"/>
-      <c r="AMJ16" s="18"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="AJT16" s="22"/>
+      <c r="AJU16" s="22"/>
+      <c r="AJV16" s="22"/>
+      <c r="AJW16" s="22"/>
+      <c r="AJX16" s="22"/>
+      <c r="AJY16" s="22"/>
+      <c r="AJZ16" s="22"/>
+      <c r="AKA16" s="22"/>
+      <c r="AKB16" s="22"/>
+      <c r="AKC16" s="22"/>
+      <c r="AKD16" s="22"/>
+      <c r="AKE16" s="22"/>
+      <c r="AKF16" s="22"/>
+      <c r="AKG16" s="22"/>
+      <c r="AKH16" s="22"/>
+      <c r="AKI16" s="22"/>
+      <c r="AKJ16" s="22"/>
+      <c r="AKK16" s="22"/>
+      <c r="AKL16" s="22"/>
+      <c r="AKM16" s="22"/>
+      <c r="AKN16" s="22"/>
+      <c r="AKO16" s="22"/>
+      <c r="AKP16" s="22"/>
+      <c r="AKQ16" s="22"/>
+      <c r="AKR16" s="22"/>
+      <c r="AKS16" s="22"/>
+      <c r="AKT16" s="22"/>
+      <c r="AKU16" s="22"/>
+      <c r="AKV16" s="22"/>
+      <c r="AKW16" s="22"/>
+      <c r="AKX16" s="22"/>
+      <c r="AKY16" s="22"/>
+      <c r="AKZ16" s="22"/>
+      <c r="ALA16" s="22"/>
+      <c r="ALB16" s="22"/>
+      <c r="ALC16" s="22"/>
+      <c r="ALD16" s="22"/>
+      <c r="ALE16" s="22"/>
+      <c r="ALF16" s="22"/>
+      <c r="ALG16" s="22"/>
+      <c r="ALH16" s="22"/>
+      <c r="ALI16" s="22"/>
+      <c r="ALJ16" s="22"/>
+      <c r="ALK16" s="22"/>
+      <c r="ALL16" s="22"/>
+      <c r="ALM16" s="22"/>
+      <c r="ALN16" s="22"/>
+      <c r="ALO16" s="22"/>
+      <c r="ALP16" s="22"/>
+      <c r="ALQ16" s="22"/>
+      <c r="ALR16" s="22"/>
+      <c r="ALS16" s="15"/>
+      <c r="ALT16" s="15"/>
+      <c r="ALU16" s="15"/>
+      <c r="ALV16" s="15"/>
+      <c r="ALW16" s="15"/>
+      <c r="ALX16" s="15"/>
+      <c r="ALY16" s="15"/>
+      <c r="ALZ16" s="15"/>
+      <c r="AMA16" s="15"/>
+      <c r="AMB16" s="15"/>
+      <c r="AMC16" s="15"/>
+      <c r="AMD16" s="15"/>
+      <c r="AME16" s="15"/>
+      <c r="AMF16" s="15"/>
+      <c r="AMG16" s="15"/>
+      <c r="AMH16" s="15"/>
+      <c r="AMI16" s="15"/>
+      <c r="AMJ16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="19" t="n">
         <v>20241230</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J17" s="1" t="n">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="M17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="19" t="n">
         <v>20250228</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M18" s="1" t="n">
+      <c r="J18" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="O18" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="P18" s="20" t="n">
         <v>2</v>
       </c>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="19" t="n">
         <v>20250330</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="19" t="n">
         <v>20241130</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="20" t="n">
         <v>5</v>
       </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="19" t="n">
         <v>20241230</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="20" t="n">
         <v>4</v>
       </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="19" t="n">
         <v>20250228</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="19" t="n">
         <v>20250330</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
